--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\presi\Documents\LTspiceXVII\Transformerless_PSU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\presi\Documents\eagle\ESP32_WiFi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,14 +224,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -289,6 +289,50 @@
         <a:xfrm>
           <a:off x="5972175" y="142875"/>
           <a:ext cx="8104232" cy="2351228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4914C2D7-7807-437C-8278-87E0F0925522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="3181350"/>
+          <a:ext cx="4848225" cy="2416898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,16 +659,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -665,18 +709,18 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>2.84/10</f>
         <v>0.28399999999999997</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>E3*D3</f>
         <v>0.56799999999999995</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -693,15 +737,15 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>1.14/20</f>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -719,18 +763,18 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>3.15/100</f>
         <v>3.15E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f>E5*D5</f>
         <v>3.15E-2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -747,18 +791,18 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>2.5/50</f>
         <v>0.05</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>50</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f>E6*D6</f>
         <v>0.05</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -775,18 +819,18 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>1.08/20</f>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>20</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f>E7*D7</f>
         <v>0.10800000000000001</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -803,18 +847,18 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f>3.22/100</f>
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f>E8*D8</f>
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -831,15 +875,15 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f>2.36/50</f>
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>50</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -856,18 +900,18 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f>1.98/50</f>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>50</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f>E10*D10</f>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -884,18 +928,18 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f>7.06/100</f>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>100</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f>E11*D11</f>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -912,41 +956,41 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f>1.45/100</f>
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f>E12*D12</f>
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>SUM(G3:G13)</f>
         <v>0.91439999999999988</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -995,10 +1039,10 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <f>E21*D21</f>
+        <f t="shared" ref="G21:G26" si="0">E21*D21</f>
         <v>3.2749999999999999</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1015,18 +1059,18 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <f>1.98/50</f>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>50</v>
       </c>
-      <c r="G22" s="3">
-        <f>E22*D22</f>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1043,18 +1087,18 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <f>7.06/100</f>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <f>E23*D23</f>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1071,18 +1115,18 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <f>1.08/20</f>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>20</v>
       </c>
-      <c r="G24" s="3">
-        <f>E24*D24</f>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
         <v>0.10800000000000001</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1099,18 +1143,18 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <f>2.5/50</f>
         <v>0.05</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>50</v>
       </c>
-      <c r="G25" s="3">
-        <f>E25*D25</f>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1127,38 +1171,38 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <f>2.84/10</f>
         <v>0.28399999999999997</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>10</v>
       </c>
-      <c r="G26" s="3">
-        <f>E26*D26</f>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
         <v>0.56799999999999995</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <f>SUM(G21:G27)</f>
         <v>4.1112000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1205,7 +1249,7 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1222,17 +1266,17 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>6.84</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36">
         <f>E36*D36</f>
         <v>6.84</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1249,15 +1293,15 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f>1.14/20</f>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>10</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1275,18 +1319,18 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <f>3.15/100</f>
         <v>3.15E-2</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>100</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f>E38*D38</f>
         <v>3.15E-2</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1303,18 +1347,18 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <f>2.5/50</f>
         <v>0.05</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>50</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <f>E39*D39</f>
         <v>0.05</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1331,18 +1375,18 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <f>1.08/20</f>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>20</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <f>E40*D40</f>
         <v>0.10800000000000001</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1359,18 +1403,18 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <f>3.22/100</f>
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <f>E41*D41</f>
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1387,15 +1431,15 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <f>2.36/50</f>
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>50</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="4" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1412,18 +1456,18 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <f>1.98/50</f>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>50</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <f>E43*D43</f>
         <v>3.9599999999999996E-2</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1440,23 +1484,23 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <f>7.06/100</f>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f>E44*D44</f>
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <f>SUM(G35:G45)</f>
         <v>7.1718999999999991</v>
       </c>
